--- a/biology/Botanique/Euphorbia_prostrata/Euphorbia_prostrata.xlsx
+++ b/biology/Botanique/Euphorbia_prostrata/Euphorbia_prostrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Euphorbe prostrée (Euphorbia prostrata), est une espèce de plante herbacée de la famille des Euphorbiacées native d'Amérique du Sud, mais largement naturalisée à travers le globe où on la trouve habituellement le long des chemins et dans les endroits perturbés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle forme des tiges rampantes et rayonnantes, et partant d'une racine pivotante. Les fleurs sont petites (2 mm de longueur), de couleur verte, hormis les glandes rosâtres.
 D'autres euphorbes du même groupe peuvent être différenciées par l'étude de la pilosité :
@@ -548,7 +562,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anisophyllum prostratum (Aiton) Haw.
 Chamaesyce prostrata (Aiton) Smal</t>
